--- a/DFW/DFW_MVE_edges.xlsx
+++ b/DFW/DFW_MVE_edges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwend\Documents\GitHub\DSGit\DFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF3C200-BB54-4971-856A-90B6736098CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA5F0C4-D5C9-4D03-BDAA-E716B90F4FF7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="7210" xr2:uid="{D04BDEF9-CDBF-4882-9CED-09C2FC6D43EC}"/>
   </bookViews>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9D99A4-D659-4C05-951A-9A320248AD69}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -943,7 +943,7 @@
         <v>4.5</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -1045,7 +1045,7 @@
         <v>-4.5</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -1094,12 +1094,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.25</v>
       </c>
       <c r="B10">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -1124,12 +1124,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.75</v>
       </c>
       <c r="B11">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
@@ -1154,12 +1154,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.3</v>
       </c>
       <c r="B12">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -1184,12 +1184,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.7</v>
       </c>
       <c r="B13">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
@@ -1214,12 +1214,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.4</v>
       </c>
       <c r="B14">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -1238,12 +1238,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.6</v>
       </c>
       <c r="B15">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
@@ -1262,12 +1262,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
@@ -1286,12 +1286,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.5</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>34</v>
@@ -1315,7 +1315,7 @@
         <v>1.6</v>
       </c>
       <c r="B18">
-        <v>-1.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
@@ -1345,7 +1345,7 @@
         <v>0.4</v>
       </c>
       <c r="B19">
-        <v>-1.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
@@ -1394,12 +1394,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1.25</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
@@ -1424,12 +1424,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.75</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -1454,12 +1454,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1.3</v>
       </c>
       <c r="B23">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="E23" t="s">
         <v>35</v>
@@ -1484,12 +1484,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.7</v>
       </c>
       <c r="B24">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -1514,12 +1514,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1.4</v>
       </c>
       <c r="B25">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
@@ -1538,12 +1538,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.6</v>
       </c>
       <c r="B26">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -1562,12 +1562,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.5</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E27" t="s">
         <v>35</v>
@@ -1586,12 +1586,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.5</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -1615,7 +1615,7 @@
         <v>1.6</v>
       </c>
       <c r="B29">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E29" t="s">
         <v>35</v>
@@ -1645,7 +1645,7 @@
         <v>0.4</v>
       </c>
       <c r="B30">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -1694,12 +1694,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>-1.75</v>
       </c>
       <c r="B32">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="E32" t="s">
         <v>37</v>
@@ -1724,12 +1724,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>-2.25</v>
       </c>
       <c r="B33">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -1754,12 +1754,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>-1.7</v>
       </c>
       <c r="B34">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="E34" t="s">
         <v>37</v>
@@ -1784,12 +1784,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>-2.2999999999999998</v>
       </c>
       <c r="B35">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
@@ -1814,12 +1814,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>-1.6</v>
       </c>
       <c r="B36">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="E36" t="s">
         <v>37</v>
@@ -1838,12 +1838,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>-2.6</v>
       </c>
       <c r="B37">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
@@ -1862,12 +1862,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>-1.5</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -1886,12 +1886,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>-2.7</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
@@ -1915,7 +1915,7 @@
         <v>-1.4</v>
       </c>
       <c r="B40">
-        <v>-1.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E40" t="s">
         <v>37</v>
@@ -1945,7 +1945,7 @@
         <v>-2.8</v>
       </c>
       <c r="B41">
-        <v>-1.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
@@ -1994,12 +1994,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>-1.75</v>
       </c>
       <c r="B43">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="E43" t="s">
         <v>39</v>
@@ -2024,12 +2024,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>-2.25</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="E44" t="s">
         <v>40</v>
@@ -2054,12 +2054,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>-1.7</v>
       </c>
       <c r="B45">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="E45" t="s">
         <v>39</v>
@@ -2084,12 +2084,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>-2.2999999999999998</v>
       </c>
       <c r="B46">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="E46" t="s">
         <v>40</v>
@@ -2114,12 +2114,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>-1.6</v>
       </c>
       <c r="B47">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="E47" t="s">
         <v>39</v>
@@ -2138,12 +2138,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>-2.6</v>
       </c>
       <c r="B48">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
@@ -2162,12 +2162,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>-1.5</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E49" t="s">
         <v>39</v>
@@ -2186,12 +2186,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>-2.7</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
@@ -2215,7 +2215,7 @@
         <v>-1.4</v>
       </c>
       <c r="B51">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E51" t="s">
         <v>39</v>
@@ -2245,7 +2245,7 @@
         <v>-2.8</v>
       </c>
       <c r="B52">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E52" t="s">
         <v>40</v>
@@ -2294,12 +2294,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>-3.75</v>
       </c>
       <c r="B54">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="E54" t="s">
         <v>41</v>
@@ -2324,12 +2324,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>-4.25</v>
       </c>
       <c r="B55">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="E55" t="s">
         <v>42</v>
@@ -2354,12 +2354,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>-3.7</v>
       </c>
       <c r="B56">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="E56" t="s">
         <v>41</v>
@@ -2384,12 +2384,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>-4.3</v>
       </c>
       <c r="B57">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="E57" t="s">
         <v>42</v>
@@ -2414,12 +2414,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>-3.6</v>
       </c>
       <c r="B58">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="E58" t="s">
         <v>41</v>
@@ -2438,12 +2438,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>-4.4000000000000004</v>
       </c>
       <c r="B59">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="E59" t="s">
         <v>42</v>
@@ -2462,12 +2462,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>-3.5</v>
       </c>
       <c r="B60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>41</v>
@@ -2486,12 +2486,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>-4.5</v>
       </c>
       <c r="B61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>42</v>
@@ -2515,7 +2515,7 @@
         <v>-3.4</v>
       </c>
       <c r="B62">
-        <v>-1.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E62" t="s">
         <v>41</v>
@@ -2545,7 +2545,7 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="B63">
-        <v>-1.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E63" t="s">
         <v>42</v>
